--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45478</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44817</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>45814</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44876</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45057</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44473</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>44238</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>44473</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45225</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45986.56953703704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44972</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45649</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44500</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45799</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>45614.55686342593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45099</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>45014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>45013</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44512</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44733</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44671</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45184</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44831</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45814</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>45903</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45229</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>45903</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44995</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>45231</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45933.47856481482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>45852.71136574074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45133</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45972.45605324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45573.77701388889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>46031.45652777778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45183</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45357.37618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>46010</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>46009</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44995</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45188</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45077</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45786.62152777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44393</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>44419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>44299</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44824</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44430</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44853</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44553</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44546</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44323</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>44299.40710648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44265</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44423</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44266</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44266</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44866.87912037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44824</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44628</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44476</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44467</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44719</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44811.61142361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44391</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44466</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44496</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44719</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>44370</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>44361.34458333333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44791.42287037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44426</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44314.33722222222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>44515</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44581</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>44580.49780092593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>44844.52039351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44498.53755787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44256</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44370.40364583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44265</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>44266</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44299</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44783</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44783</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44449</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44783</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44351</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44510</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44602.5965162037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44445.58675925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44495</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44701</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44475</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>44412</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44426</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44383.23978009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44415</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44571</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44416.40457175926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44601</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44455</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44455</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44490.60873842592</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44607</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44871.69347222222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44260</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44733.77543981482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44526</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44795.44392361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44827</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44463</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44393</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45231.40846064815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44602</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44837</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44838</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44872.57288194444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44797</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44725</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44369</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44581</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44789</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44496.58033564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44409.41428240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44409.40363425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44238</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44605</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44641</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>44848.42216435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44480</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44616</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>44522</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>44872.60384259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>44832</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44840</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44523</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44725</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44270</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>44266</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44762</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44439</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44539</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44824</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>45165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>44865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>44823</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>45362</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>45517</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45457</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>44627.34033564815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>45111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44601.78850694445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44790</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>44559.57041666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>44964</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>45483</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45697</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>45697</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45456.83059027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45181.92876157408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45181.95491898148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44607.35009259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44784</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45006</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44830.47399305556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45516</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45167</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45460.66567129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44844</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>44840</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>45016</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>45762</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>45327.35068287037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>45345</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>45393</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45001</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44945</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45357.44873842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44847</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44691.52616898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45672</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45533.54609953704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44928.36578703704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44701.44754629629</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>44701.4744212963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45414</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44406</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45450.38120370371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45798.57403935185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45231</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45560</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45798.46452546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44888</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45240</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44809</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45799</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45799.27168981481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45141</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45152</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45885</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45804.37456018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44424.38577546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44887</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44985.46709490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44831</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44678</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45805.43341435185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45208</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45362</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45805.43864583333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45124.55633101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45147</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44964</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44795</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45890</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45891</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45813</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45322</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45002.42188657408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45891.58381944444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45813.57603009259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45758</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45798.56348379629</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45099</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>44895</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45338.34245370371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45898</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45531</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44638</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45901.49755787037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44859</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44793.50563657407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45316.49630787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45902.32601851852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>45077</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>45595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45902</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45226</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44603</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45905.46659722222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>45220.48068287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45907</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45822</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45479</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45097</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45601</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44797</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45908.35550925926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45733</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>45827</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45100</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45826.59151620371</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45827.53319444445</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45827</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45088.83430555555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45826.63324074074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45915.41148148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44852</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45827</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44957</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45594.62556712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>45692</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>44964</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45328</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45209</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45833</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>44664.55688657407</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>44664</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45281</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45281</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45833</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>45833.45259259259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45107</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45925.38545138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45478.40751157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45483</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44441.88092592593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44760</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45646.42061342593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44932.74261574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45835.36697916667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44602</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44466</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44830.4649074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44830.46849537037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45352</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>45393</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45393</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45194</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45840.46559027778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45841.59056712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44860</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>45840.46840277778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45211</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45106</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45357.38601851852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44844</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45842</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>45678</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45477.65216435185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45700</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>45940</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>45842</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45772.63453703704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>44776</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44875</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45204</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45316</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44609.53502314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45098</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45302</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45946.69195601852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>45852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>45852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45852.70716435185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45852.72320601852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>45852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45951.65359953704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45951.67546296296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45950.44700231482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45322</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45951.65725694445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45845</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45033</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45953.46193287037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45953.46886574074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45953</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44434</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44551</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45481.49899305555</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45478</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45177</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45366</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45729.56836805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>44978.49685185185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>44978.5737037037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45957.38387731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45870</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44659</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45594.6605787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45810</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>44602</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>44602</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>44816</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45875.3396412037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44519</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>44974</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44439</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>44596.54990740741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>44596.55368055555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45959.40447916667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45229</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>45006</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45841.48686342593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44319</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45881.40907407407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>45964</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45348</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45901</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>45840.47953703703</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>45964</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45840.47563657408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45328</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45328</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>45840.45864583334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>45840.50141203704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28754,7 +28754,7 @@
         <v>44858</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45967.59880787037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44781</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44905</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44628</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45967.63784722222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45088.83840277778</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>44242</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44858.60809027778</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45405.48912037037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>45727.34248842593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45972.79274305556</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45972.81768518518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45853</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>45972.81034722222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45974.64094907408</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>45975.57271990741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44977</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44977</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44445</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45477.64910879629</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44502.35746527778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45184</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45980.32501157407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45981</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>44978</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>44886</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45272.55362268518</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44965</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44803.47950231482</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44694</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>45357.44695601852</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>45393</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44840</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44895</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>45205</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>44957.44885416667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>46030.68107638889</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>46030.67123842592</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>46030.684375</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44942.58850694444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44942</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>46030.66519675926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45239</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45758</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45993.48525462963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44488</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44467</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>45057</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>46034.55986111111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>46037.37704861111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44362</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44957</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45446.56626157407</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>46037.62321759259</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>45120</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45478</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44985.47086805556</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44980</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>44549.74741898148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>44789</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44789</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45604</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45547</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45182.5793287037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45182</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44789</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>46038.56913194444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45753.61614583333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>46037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45996.56251157408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44551</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44551</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>46000.37695601852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44507.56865740741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>45281</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>45477</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44909</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>46000.46746527778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>46002.57778935185</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44266</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44859</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>45565</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>46020</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44781</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>44886.65092592593</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>44837</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45196</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44621</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>45189</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>46048.66766203703</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44859</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45013</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44483</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>46051.50774305555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45096</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45231</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44987</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45154</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45457</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>46010</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>46010</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>46010</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>44518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>46010</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44862</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45002</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45393</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>45153</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45163</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>44830.38502314815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44871</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35773,7 +35773,7 @@
         <v>45475</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>44696</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45247</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>44978.52131944444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45481.49289351852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45463</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>44830</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45967</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>46059.59083333334</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45148</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>44823.44353009259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45096</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36462,7 +36462,7 @@
         <v>44968</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>45635.44527777778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>45012.66421296296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44817</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>44603</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>45001</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>45566.82973379629</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>45481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45268</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45230</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45547</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>45772.63540509259</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>44922</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37218,7 +37218,7 @@
         <v>45473.87645833333</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45350.32991898148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37342,7 +37342,7 @@
         <v>45357.45089120371</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>45076</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44495</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>45322</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44587</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>45677</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44945</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37798,7 +37798,7 @@
         <v>45105</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44481.24327546296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         <v>45191</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37974,7 +37974,7 @@
         <v>45231</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38031,7 +38031,7 @@
         <v>45473.88313657408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>45205.31987268518</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         <v>45348</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38207,7 +38207,7 @@
         <v>44502.36780092592</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45239.54861111111</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>44701.36431712963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45050</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45509</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38559,7 +38559,7 @@
         <v>44838</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45214</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>44694</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>44601</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>44952</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>45076</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>45075</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>45518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
         <v>45169</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
         <v>44862</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39129,7 +39129,7 @@
         <v>45098</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>45126.65491898148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39243,7 +39243,7 @@
         <v>44848</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39300,7 +39300,7 @@
         <v>45362</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>45168</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39414,7 +39414,7 @@
         <v>45677</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>45056.46821759259</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39528,7 +39528,7 @@
         <v>44523</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44602</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39642,7 +39642,7 @@
         <v>44530.82445601852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39699,7 +39699,7 @@
         <v>45000.36373842593</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39756,7 +39756,7 @@
         <v>44602</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39813,7 +39813,7 @@
         <v>44995</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
         <v>44872.57752314815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>45026</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44708</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>45180</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40103,7 +40103,7 @@
         <v>45071.37393518518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45470</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         <v>45666</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>44386</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>45215</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40398,7 +40398,7 @@
         <v>45215</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40455,7 +40455,7 @@
         <v>45107</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44480</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>45268</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>45590</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44853</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40750,7 +40750,7 @@
         <v>45041</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40807,7 +40807,7 @@
         <v>45775.52854166667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>45594.63619212963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45594.63828703704</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>44886</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>45211</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>45460</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>45230</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>44238</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41273,7 +41273,7 @@
         <v>45446.56141203704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>44712</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41392,7 +41392,7 @@
         <v>45230</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41454,7 +41454,7 @@
         <v>45632.46648148148</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41511,7 +41511,7 @@
         <v>44491</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41568,7 +41568,7 @@
         <v>45223</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41625,7 +41625,7 @@
         <v>45475</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41682,7 +41682,7 @@
         <v>44833</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41739,7 +41739,7 @@
         <v>45225</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41796,7 +41796,7 @@
         <v>45264.64241898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44805</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>45694</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42148,7 +42148,7 @@
         <v>45138.60248842592</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>45697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42262,7 +42262,7 @@
         <v>44888</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44888</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42376,7 +42376,7 @@
         <v>44623</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42433,7 +42433,7 @@
         <v>44616.69246527777</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42490,7 +42490,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>44449</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45478</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42671,7 +42671,7 @@
         <v>45520.59179398148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42728,7 +42728,7 @@
         <v>45174</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>44467</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>45688</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>45477</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>44464.49756944444</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>44596</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>45238</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>44442</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>45692</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>45214</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>45189</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43365,7 +43365,7 @@
         <v>45635.43770833333</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43422,7 +43422,7 @@
         <v>45061</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43479,7 +43479,7 @@
         <v>45001</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43536,7 +43536,7 @@
         <v>45001</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43593,7 +43593,7 @@
         <v>44600</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43650,7 +43650,7 @@
         <v>44957</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         <v>45646.45950231481</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>44725.39371527778</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>45229</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43888,7 +43888,7 @@
         <v>44824.55655092592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43945,7 +43945,7 @@
         <v>45438</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44002,7 +44002,7 @@
         <v>45016</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44064,7 +44064,7 @@
         <v>45328</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44121,7 +44121,7 @@
         <v>45103.46788194445</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44183,7 +44183,7 @@
         <v>45204</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44240,7 +44240,7 @@
         <v>44643</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44297,7 +44297,7 @@
         <v>44984.41238425926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44354,7 +44354,7 @@
         <v>45108</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44411,7 +44411,7 @@
         <v>44957</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44473,7 +44473,7 @@
         <v>44934</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44530,7 +44530,7 @@
         <v>44599.61034722222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         <v>44851</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44649,7 +44649,7 @@
         <v>45384</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>45204</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44773,7 +44773,7 @@
         <v>45646.43950231482</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44830,7 +44830,7 @@
         <v>45415</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44887,7 +44887,7 @@
         <v>44483</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44944,7 +44944,7 @@
         <v>45141</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45001,7 +45001,7 @@
         <v>44411</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45058,7 +45058,7 @@
         <v>44995</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45120,7 +45120,7 @@
         <v>44964</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45177,7 +45177,7 @@
         <v>44460</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45234,7 +45234,7 @@
         <v>44461</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45291,7 +45291,7 @@
         <v>45071</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>44963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>45169</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>45153</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         <v>45329</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45643,7 +45643,7 @@
         <v>44963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45700,7 +45700,7 @@
         <v>45090.55078703703</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45762,7 +45762,7 @@
         <v>45646.42608796297</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45819,7 +45819,7 @@
         <v>44699</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45876,7 +45876,7 @@
         <v>44582.40109953703</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45933,7 +45933,7 @@
         <v>44582</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45990,7 +45990,7 @@
         <v>44250</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46047,7 +46047,7 @@
         <v>45386</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46104,7 +46104,7 @@
         <v>45462</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45328.47</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>44691.54077546296</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46280,7 +46280,7 @@
         <v>45050</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46342,7 +46342,7 @@
         <v>45636</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45674</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46456,7 +46456,7 @@
         <v>45593.60288194445</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45547</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>44825</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46627,7 +46627,7 @@
         <v>45666</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>44412</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45698</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>45785</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45785</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45461</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45786.44217592593</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45517</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45786</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>44335</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45790.69971064815</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45461</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47316,7 +47316,7 @@
         <v>45674</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47373,7 +47373,7 @@
         <v>45646.45209490741</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45478</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44817</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>45814</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44876</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45057</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44473</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>44238</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>44473</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45225</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45986.56953703704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44972</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45649</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44500</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>44809</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>45799</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>45614.55686342593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45099</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>45014</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>45013</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44512</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44602</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>44546</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44733</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44839</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44671</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45184</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44749</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44831</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45814</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>45903</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>45344</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>45229</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>45903</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>44995</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>45231</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>45933.47856481482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>45852.71136574074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>45133</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>45972.45605324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44995</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45573.77701388889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>46031.45652777778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44483</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45183</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45357.37618055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>46010</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>46009</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>44995</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45188</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45077</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45786.62152777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44393</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>44419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>44299</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44824</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44430</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44853</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44553</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44546</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44323</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>44299.40710648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>44265</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         <v>44423</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>44407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>44512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44266</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44266</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>44866.87912037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44468</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44824</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44628</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44476</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>44599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44467</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44719</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>44536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>44602</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44811.61142361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>44391</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>44417</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44466</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>44480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44496</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44719</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>44370</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>44585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>44361.34458333333</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44725</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44791.42287037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44619</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>44426</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>44314.33722222222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>44515</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44581</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>44580.49780092593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>44844.52039351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44498.53755787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44256</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
         <v>44370.40364583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44265</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
         <v>44266</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44299</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44712</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>44783</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>44783</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>44449</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44783</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44351</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44510</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44602.5965162037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44445.58675925926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44495</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44496</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44701</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44475</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44550</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>44412</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>44426</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>44383.23978009259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44415</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44571</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44416.40457175926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44601</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44455</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44455</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44490.60873842592</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44607</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44871.69347222222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44260</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44733.77543981482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44526</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44531</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44795.44392361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44827</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>44463</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>44393</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         <v>44768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>45231.40846064815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>44602</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44706</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44837</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44838</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44872.57288194444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44797</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44725</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44369</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44581</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44789</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44496.58033564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44467</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44409.41428240741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44409.40363425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44238</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44605</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44473</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>44641</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>44848.42216435185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>44480</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44616</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>44522</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>44872.60384259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>44832</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44840</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>44523</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44725</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>44270</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13439,7 +13439,7 @@
         <v>44266</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13496,7 +13496,7 @@
         <v>44512</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
         <v>44762</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44790</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>44439</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44539</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>44824</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>45165</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>44865</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>44823</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>45362</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>45517</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45457</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>44627.34033564815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14252,7 +14252,7 @@
         <v>45111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44601.78850694445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44790</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14423,7 +14423,7 @@
         <v>44559.57041666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>44474</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>44964</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>45483</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45697</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>45697</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44858</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45456.83059027778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45181.92876157408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>45181.95491898148</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44607.35009259259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>44784</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45006</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>44830.47399305556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45516</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45167</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45460.66567129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>45019</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44844</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>44840</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>44440</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         <v>45016</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         <v>45762</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         <v>45327.35068287037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>45345</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>45393</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>45001</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>44945</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>45357.44873842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>44847</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44691.52616898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45672</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45533.54609953704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>44928.36578703704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>44701.44754629629</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>44701.4744212963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45414</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16671,7 +16671,7 @@
         <v>45001</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16728,7 +16728,7 @@
         <v>44406</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
         <v>45450.38120370371</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16842,7 +16842,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16904,7 +16904,7 @@
         <v>45798.57403935185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16961,7 +16961,7 @@
         <v>45231</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
         <v>45560</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17075,7 +17075,7 @@
         <v>45798.46452546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44888</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>45240</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44809</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>45799</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17365,7 +17365,7 @@
         <v>45799.27168981481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
         <v>45141</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>45152</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>45885</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
         <v>45804.37456018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>44424.38577546296</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>44887</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
         <v>44985.46709490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         <v>44831</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17883,7 +17883,7 @@
         <v>44678</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45805.43341435185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45208</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45362</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45805.43864583333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45124.55633101852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18225,7 +18225,7 @@
         <v>45147</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>44964</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44795</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45890</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45891</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45813</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>45322</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45813</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45002.42188657408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45891.58381944444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18867,7 +18867,7 @@
         <v>45890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18924,7 +18924,7 @@
         <v>45890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45813.57603009259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45758</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45798.56348379629</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>45099</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>44895</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45338.34245370371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>45898</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45531</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>45901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44638</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45901</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45901.49755787037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44859</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44793.50563657407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45316.49630787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45902.32601851852</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>45077</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
         <v>45595</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20084,7 +20084,7 @@
         <v>45902</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45226</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44603</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20255,7 +20255,7 @@
         <v>45905.46659722222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>45220.48068287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>45907</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>45822</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45479</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45097</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45601</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44797</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>45908.35550925926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45733</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>45827</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45100</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>45826.59151620371</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45827.53319444445</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45827</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45088.83430555555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45826.63324074074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45915.41148148148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44852</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45915</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45827</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>44957</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45594.62556712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>44797</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>45692</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>44964</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45328</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45209</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45214</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>45833</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>44664.55688657407</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>44664</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45281</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45281</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>45833</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>45833.45259259259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45107</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45925.38545138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45478.40751157407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45483</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>44441.88092592593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44760</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45646.42061342593</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>44932.74261574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45835.36697916667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>45547</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>44602</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>44466</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>44830.4649074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44830.46849537037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45352</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>45393</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45393</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45194</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>45840.46559027778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
         <v>45841.59056712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44860</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>45840.46840277778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45211</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>45106</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>45357.38601851852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44844</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>45842</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>45678</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>45477.65216435185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24424,7 +24424,7 @@
         <v>45142</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>45700</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
         <v>45940</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>45842</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45772.63453703704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>44776</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44875</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>45204</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>45316</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>44609.53502314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45098</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45302</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45946.69195601852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45852</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>45852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>45852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25455,7 +25455,7 @@
         <v>45852.70716435185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>45852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>45852.72320601852</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>45852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>45951.65359953704</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45951.67546296296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45950.44700231482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45322</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45951.65725694445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45845</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45033</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44908</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45953.46193287037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45953.46886574074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45953</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44434</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44551</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45481.49899305555</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45478</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45177</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45366</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45729.56836805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>44978.49685185185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>44978.5737037037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45957.38387731482</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45870</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45215</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44659</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45594.6605787037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45810</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>44602</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>44602</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>44816</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45875.3396412037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44519</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>44974</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44439</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>44596.54990740741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>44596.55368055555</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45959.40447916667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45229</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44886</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>45006</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>45841.48686342593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44319</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45881.40907407407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>45964</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45348</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45901</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28350,7 +28350,7 @@
         <v>45840.47953703703</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28407,7 +28407,7 @@
         <v>45964</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45840.47563657408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45328</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45328</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>45840.45864583334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>45840.50141203704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28754,7 +28754,7 @@
         <v>44858</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45967.59880787037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>44781</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44905</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44628</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45967.63784722222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45088.83840277778</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>44242</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44858.60809027778</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45405.48912037037</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45667</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>45727.34248842593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>45972.79274305556</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>45972.81768518518</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45853</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>45972.81034722222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45974.64094907408</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>45975.57271990741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44977</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>44977</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44445</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45477.64910879629</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>44502.35746527778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45184</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45980.32501157407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45981</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45594</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>44978</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>44886</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45272.55362268518</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>44965</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44803.47950231482</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44694</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>45357.44695601852</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>45393</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>44840</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30898,7 +30898,7 @@
         <v>44895</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         <v>45205</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31012,7 +31012,7 @@
         <v>44957.44885416667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31069,7 +31069,7 @@
         <v>46030.68107638889</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>46030.67123842592</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>46030.684375</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44942.58850694444</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44942</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>46030.66519675926</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>45239</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45758</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>45993.48525462963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44488</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44467</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>45057</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>46034.55986111111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31834,7 +31834,7 @@
         <v>46037.37704861111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44362</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>44957</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>45446.56626157407</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>46037.62321759259</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>45120</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45478</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>44985.47086805556</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>44980</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>44549.74741898148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>44789</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44789</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32600,7 +32600,7 @@
         <v>45604</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32657,7 +32657,7 @@
         <v>44461</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45547</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45182.5793287037</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>45182</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44789</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>46038.56913194444</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>45753.61614583333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>46037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>45996.56251157408</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44551</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44551</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>46000.37695601852</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44507.56865740741</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>45281</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33475,7 +33475,7 @@
         <v>45477</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33532,7 +33532,7 @@
         <v>44977</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44970</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44909</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>46000.46746527778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>46002.57778935185</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33827,7 +33827,7 @@
         <v>44266</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44859</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>45565</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33998,7 +33998,7 @@
         <v>46020</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34055,7 +34055,7 @@
         <v>44433</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44781</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34179,7 +34179,7 @@
         <v>44886.65092592593</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>44837</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>45196</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44621</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>45189</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>46048.66766203703</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44859</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45013</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44483</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>46051.50774305555</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45096</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45231</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>44987</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45154</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34992,7 +34992,7 @@
         <v>45457</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>46010</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35111,7 +35111,7 @@
         <v>46010</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>46010</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>44518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>46010</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44862</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45002</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45393</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>45153</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45163</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>44830.38502314815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44871</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35773,7 +35773,7 @@
         <v>45475</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>44696</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45247</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>44978.52131944444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45481.49289351852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45463</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>44830</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45967</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>46059.59083333334</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45148</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>44823.44353009259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45096</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36462,7 +36462,7 @@
         <v>44968</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>45635.44527777778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>45012.66421296296</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44817</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>44603</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>45001</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>45566.82973379629</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>45481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45268</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45230</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45547</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>45772.63540509259</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>44922</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37218,7 +37218,7 @@
         <v>45473.87645833333</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>45350.32991898148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37342,7 +37342,7 @@
         <v>45357.45089120371</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>45076</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44495</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>45322</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44587</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>45677</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44945</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37798,7 +37798,7 @@
         <v>45105</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44481.24327546296</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37917,7 +37917,7 @@
         <v>45191</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37974,7 +37974,7 @@
         <v>45231</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38031,7 +38031,7 @@
         <v>45473.88313657408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>45205.31987268518</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38150,7 +38150,7 @@
         <v>45348</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38207,7 +38207,7 @@
         <v>44502.36780092592</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38264,7 +38264,7 @@
         <v>45239.54861111111</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38321,7 +38321,7 @@
         <v>44701.36431712963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38378,7 +38378,7 @@
         <v>44888</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38435,7 +38435,7 @@
         <v>45050</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38497,7 +38497,7 @@
         <v>45509</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38559,7 +38559,7 @@
         <v>44838</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38616,7 +38616,7 @@
         <v>45214</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>44694</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38730,7 +38730,7 @@
         <v>44601</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38787,7 +38787,7 @@
         <v>44952</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38844,7 +38844,7 @@
         <v>45076</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38901,7 +38901,7 @@
         <v>45075</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>45518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39015,7 +39015,7 @@
         <v>45169</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39072,7 +39072,7 @@
         <v>44862</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39129,7 +39129,7 @@
         <v>45098</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>45126.65491898148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39243,7 +39243,7 @@
         <v>44848</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39300,7 +39300,7 @@
         <v>45362</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>45168</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39414,7 +39414,7 @@
         <v>45677</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>45056.46821759259</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39528,7 +39528,7 @@
         <v>44523</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39585,7 +39585,7 @@
         <v>44602</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39642,7 +39642,7 @@
         <v>44530.82445601852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39699,7 +39699,7 @@
         <v>45000.36373842593</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39756,7 +39756,7 @@
         <v>44602</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39813,7 +39813,7 @@
         <v>44995</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39875,7 +39875,7 @@
         <v>44872.57752314815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>45026</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>44708</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>45180</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40103,7 +40103,7 @@
         <v>45071.37393518518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45470</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40222,7 +40222,7 @@
         <v>45666</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>44386</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>45215</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40398,7 +40398,7 @@
         <v>45215</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40455,7 +40455,7 @@
         <v>45107</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44480</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40574,7 +40574,7 @@
         <v>45268</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40631,7 +40631,7 @@
         <v>45590</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40688,7 +40688,7 @@
         <v>44853</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40750,7 +40750,7 @@
         <v>45041</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40807,7 +40807,7 @@
         <v>45775.52854166667</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40864,7 +40864,7 @@
         <v>45594.63619212963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45594.63828703704</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>44886</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>45211</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>45460</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41159,7 +41159,7 @@
         <v>45230</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41216,7 +41216,7 @@
         <v>44238</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41273,7 +41273,7 @@
         <v>45446.56141203704</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41335,7 +41335,7 @@
         <v>44712</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41392,7 +41392,7 @@
         <v>45230</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41454,7 +41454,7 @@
         <v>45632.46648148148</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41511,7 +41511,7 @@
         <v>44491</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41568,7 +41568,7 @@
         <v>45223</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41625,7 +41625,7 @@
         <v>45475</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41682,7 +41682,7 @@
         <v>44833</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41739,7 +41739,7 @@
         <v>45225</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41796,7 +41796,7 @@
         <v>45264.64241898148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         <v>44855</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>44985</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41972,7 +41972,7 @@
         <v>44805</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>45694</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>44985</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42148,7 +42148,7 @@
         <v>45138.60248842592</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>45697</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42262,7 +42262,7 @@
         <v>44888</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>44888</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42376,7 +42376,7 @@
         <v>44623</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42433,7 +42433,7 @@
         <v>44616.69246527777</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42490,7 +42490,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>44449</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45478</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42671,7 +42671,7 @@
         <v>45520.59179398148</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42728,7 +42728,7 @@
         <v>45174</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>44467</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>45688</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>45477</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>44464.49756944444</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>44596</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>45238</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>44442</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>45692</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>45214</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>45189</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43365,7 +43365,7 @@
         <v>45635.43770833333</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43422,7 +43422,7 @@
         <v>45061</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43479,7 +43479,7 @@
         <v>45001</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43536,7 +43536,7 @@
         <v>45001</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43593,7 +43593,7 @@
         <v>44600</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43650,7 +43650,7 @@
         <v>44957</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         <v>45646.45950231481</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>44725.39371527778</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>45229</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43888,7 +43888,7 @@
         <v>44824.55655092592</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43945,7 +43945,7 @@
         <v>45438</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44002,7 +44002,7 @@
         <v>45016</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44064,7 +44064,7 @@
         <v>45328</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44121,7 +44121,7 @@
         <v>45103.46788194445</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44183,7 +44183,7 @@
         <v>45204</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44240,7 +44240,7 @@
         <v>44643</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44297,7 +44297,7 @@
         <v>44984.41238425926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44354,7 +44354,7 @@
         <v>45108</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44411,7 +44411,7 @@
         <v>44957</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44473,7 +44473,7 @@
         <v>44934</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44530,7 +44530,7 @@
         <v>44599.61034722222</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         <v>44851</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44649,7 +44649,7 @@
         <v>45384</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>45204</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44773,7 +44773,7 @@
         <v>45646.43950231482</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44830,7 +44830,7 @@
         <v>45415</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44887,7 +44887,7 @@
         <v>44483</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44944,7 +44944,7 @@
         <v>45141</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45001,7 +45001,7 @@
         <v>44411</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45058,7 +45058,7 @@
         <v>44995</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45120,7 +45120,7 @@
         <v>44964</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45177,7 +45177,7 @@
         <v>44460</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45234,7 +45234,7 @@
         <v>44461</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45291,7 +45291,7 @@
         <v>45071</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>44963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>44992</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>45169</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45529,7 +45529,7 @@
         <v>45153</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45586,7 +45586,7 @@
         <v>45329</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45643,7 +45643,7 @@
         <v>44963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45700,7 +45700,7 @@
         <v>45090.55078703703</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45762,7 +45762,7 @@
         <v>45646.42608796297</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45819,7 +45819,7 @@
         <v>44699</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45876,7 +45876,7 @@
         <v>44582.40109953703</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45933,7 +45933,7 @@
         <v>44582</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45990,7 +45990,7 @@
         <v>44250</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46047,7 +46047,7 @@
         <v>45386</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46104,7 +46104,7 @@
         <v>45462</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45328.47</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>44691.54077546296</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46280,7 +46280,7 @@
         <v>45050</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46342,7 +46342,7 @@
         <v>45636</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45674</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46456,7 +46456,7 @@
         <v>45593.60288194445</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45547</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>44825</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46627,7 +46627,7 @@
         <v>45666</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>44412</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45698</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>45785</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45785</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45461</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46974,7 +46974,7 @@
         <v>45786.44217592593</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47031,7 +47031,7 @@
         <v>45517</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47088,7 +47088,7 @@
         <v>45786</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47145,7 +47145,7 @@
         <v>44335</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47202,7 +47202,7 @@
         <v>45790.69971064815</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47259,7 +47259,7 @@
         <v>45461</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47316,7 +47316,7 @@
         <v>45674</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47373,7 +47373,7 @@
         <v>45646.45209490741</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45478</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44817</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>45814</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44876</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45057</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44473</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>45225</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45986.56953703704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45649</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44500</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45666</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>44481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>44536</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45614.55686342593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45099</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45014</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45013</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>45799</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44512</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44671</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44749</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44831</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45344</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45229</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45903</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45231</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45852.71136574074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45903</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45933.47856481482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45133</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44995</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45573.77701388889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45972.45605324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45183</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>45357.37618055556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>46010</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>46009</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>44599</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44803</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>46031.45652777778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44995</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>45188</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45077</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45786.62152777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45814</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44393</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44299</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44824</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44430</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>44853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44553</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>44546</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>44519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44299.40710648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44265</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44423</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44512</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44266</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44266</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44866.87912037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44628</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44824</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44467</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44811.61142361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44391</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44466</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44719</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44370</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44361.34458333333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44725</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44791.42287037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44314.33722222222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44515</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44581</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44580.49780092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44844.52039351852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44498.53755787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44256</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44266</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44370.40364583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44265</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44299</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44783</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44783</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44449</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44783</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44510</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44264</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44602.5965162037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44445.58675925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44701</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44412</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44426</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44383.23978009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44415</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44571</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44416.40457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44601</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44455</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44455</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44490.60873842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44871.69347222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44260</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44733.77543981482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44725</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44526</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44795.44392361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44827</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44463</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44393</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45231.40846064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44838</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44872.57288194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44797</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44725</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44369</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44581</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44496.58033564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44789</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44409.41428240741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44409.40363425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44641</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44848.42216435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44480</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44616</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44872.60384259259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44523</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44375</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44725</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44266</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44270</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44512</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44762</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44539</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44439</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44824</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45165</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44823</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>45457</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44790</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44559.57041666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44627.34033564815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>45362</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>45517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>45483</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44858</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44964</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45697</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45697</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45456.83059027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45181.92876157408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45181.95491898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44784</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44607.35009259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44830.47399305556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44601.78850694445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45516</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45167</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45460.66567129629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44844</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44840</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45016</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45762</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45345</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45001</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45357.44873842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45533.54609953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44928.36578703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44691.52616898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45672</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44701.44754629629</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44701.4744212963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45001</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44406</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45414</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45450.38120370371</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45327.35068287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45141</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45152</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44809</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44985.46709490741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44831</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44424.38577546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>45208</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45362</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45124.55633101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45147</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45322</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45002.42188657408</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45798.56348379629</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45758</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45245</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44994</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44638</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44895</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>45885</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>45338.34245370371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44859</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45822</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44793.50563657407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>45316.49630787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>45077</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45226</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45890</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45891</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45827</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45891.58381944444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45890</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45826.59151620371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>45220.48068287037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45890</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45827.53319444445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45827</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45826.63324074074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>45827</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>45479</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>45601</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45733</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44965</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45100</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45833</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45088.83430555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45833.45259259259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45898</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44957</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45594.62556712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>45901</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44797</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>45901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>45692</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45901.49755787037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45902.32601851852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45835.36697916667</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45595</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45902</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44964</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45328</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45905.46659722222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45214</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45840.46559027778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44664.55688657407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>44664</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45841.59056712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45281</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45281</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45840.46840277778</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45908.35550925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45107</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45478.40751157407</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45842</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44441.88092592593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45700</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45842</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44760</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45772.63453703704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45915.41148148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45646.42061342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44932.74261574074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45915</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45547</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44602</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45852</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45852.70716435185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>45852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>45852.72320601852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44830.4649074074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44830.46849537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>45852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>45352</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>45393</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>45845</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45393</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>45194</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>45845</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44860</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>45211</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44434</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>45925.38545138889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>45357.38601851852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44844</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>45678</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>45477.65216435185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45729.56836805555</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45870</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>45215</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>45142</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45810</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45875.3396412037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44776</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44875</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45204</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45316</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>44609.53502314815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45098</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45302</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45881.40907407407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>45322</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45727.34248842593</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45853</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44551</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45481.49899305555</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45478</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45940</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>45177</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>45366</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44978.49685185185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44978.5737037037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44659</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45594.6605787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44602</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44602</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>44816</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>45477.64910879629</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>45946.69195601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>45951.65359953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45951.67546296296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>44974</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>45950.44700231482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>44596.54990740741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>44596.55368055555</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45229</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45951.65725694445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44886</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45006</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45953.46193287037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45953.46886574074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>44319</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45953</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>45348</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45328</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45328</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44858</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44781</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44905</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44628</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45088.83840277778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45957.38387731482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44858.60809027778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45405.48912037037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45959.40447916667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44977</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45841.48686342593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45901</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45840.47953703703</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45964</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45840.47563657408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45840.45864583334</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45840.50141203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45967.59880787037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>44502.35746527778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45184</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45594</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45967.63784722222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44886</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45272.55362268518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45160</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44803.47950231482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44694</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45972.79274305556</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45972.81768518518</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45972.81034722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45974.64094907408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45357.44695601852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45975.57271990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45393</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44895</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45205</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44957.44885416667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>45980.32501157407</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45981</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44942.58850694444</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44942</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45239</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45758</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44467</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45057</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44362</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44957</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>45446.56626157407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45386</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45993.48525462963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45478</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44985.47086805556</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44980</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44549.74741898148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44789</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>46034.55986111111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44789</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>45604</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44461</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>46037.37704861111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>45547</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>45182.5793287037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>45182</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44789</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>46037.62321759259</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45753.61614583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44551</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44551</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44507.56865740741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>45281</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>46038.56913194444</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45477</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>46037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44977</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45996.56251157408</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>46000.37695601852</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>44970</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>44909</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44266</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44859</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44781</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>46000.46746527778</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>44886.65092592593</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>44837</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45196</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>46002.57778935185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44621</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44859</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>45013</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>46048.66766203703</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44483</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>45096</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45231</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45154</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>46051.50774305555</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45457</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>44518</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>44862</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>45393</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34047,7 +34047,7 @@
         <v>45153</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34109,7 +34109,7 @@
         <v>45163</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34166,7 +34166,7 @@
         <v>46010</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34228,7 +34228,7 @@
         <v>46010</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>46010</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44830.38502314815</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>46010</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44871</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>45475</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44696</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45247</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44978.52131944444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45481.49289351852</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45463</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44830</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>46059.59083333334</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44823.44353009259</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>45096</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44968</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>45635.44527777778</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>45012.66421296296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>44603</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45001</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45566.82973379629</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45268</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45230</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35740,7 +35740,7 @@
         <v>46020</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35797,7 +35797,7 @@
         <v>45547</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
         <v>45772.63540509259</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35911,7 +35911,7 @@
         <v>44922</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         <v>45473.87645833333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>45350.32991898148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>45357.45089120371</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>45967</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>44495</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>45322</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36382,7 +36382,7 @@
         <v>44587</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36439,7 +36439,7 @@
         <v>45677</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36496,7 +36496,7 @@
         <v>44945</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36553,7 +36553,7 @@
         <v>45125</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36610,7 +36610,7 @@
         <v>45105</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44481.24327546296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45191</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45231</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>46073.68959490741</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45473.88313657408</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>45205.31987268518</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>46030.684375</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>46073.70451388889</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45348</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>46030.68107638889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44502.36780092592</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45239.54861111111</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44701.36431712963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44888</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>46030.66519675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45050</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37594,7 +37594,7 @@
         <v>46030.67123842592</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>45509</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>44838</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>45214</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44694</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44601</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44952</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>45076</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>45075</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38112,7 +38112,7 @@
         <v>45518</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38169,7 +38169,7 @@
         <v>45169</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38283,7 +38283,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38340,7 +38340,7 @@
         <v>45126.65491898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>44848</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45362</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38511,7 +38511,7 @@
         <v>45168</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38568,7 +38568,7 @@
         <v>45677</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>45056.46821759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44523</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38739,7 +38739,7 @@
         <v>44602</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38796,7 +38796,7 @@
         <v>44530.82445601852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>45000.36373842593</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44602</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
         <v>44995</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39029,7 +39029,7 @@
         <v>44872.57752314815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39086,7 +39086,7 @@
         <v>45026</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>44708</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39200,7 +39200,7 @@
         <v>45180</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>45071.37393518518</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39319,7 +39319,7 @@
         <v>45470</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39376,7 +39376,7 @@
         <v>45666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39433,7 +39433,7 @@
         <v>44386</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45215</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45215</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45107</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39671,7 +39671,7 @@
         <v>44480</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39728,7 +39728,7 @@
         <v>45268</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39785,7 +39785,7 @@
         <v>45590</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39842,7 +39842,7 @@
         <v>44853</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45041</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>45775.52854166667</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45594.63619212963</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45594.63828703704</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44886</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>45211</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>45460</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>45230</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45446.56141203704</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44712</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45230</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>45632.46648148148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44491</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>45223</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>45475</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44833</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>45225</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45264.64241898148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44855</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44985</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44805</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>45694</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44985</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41245,7 +41245,7 @@
         <v>45138.60248842592</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41302,7 +41302,7 @@
         <v>45697</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41359,7 +41359,7 @@
         <v>44888</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>44888</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>44623</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41530,7 +41530,7 @@
         <v>44616.69246527777</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41587,7 +41587,7 @@
         <v>45070</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>44449</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>45478</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>45520.59179398148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>45174</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44467</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45688</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45477</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44464.49756944444</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44596</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45238</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44442</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45692</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>45214</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>45189</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45635.43770833333</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>45061</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>45001</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>45001</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44600</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>45646.45950231481</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44725.39371527778</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>45229</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42985,7 +42985,7 @@
         <v>44824.55655092592</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45438</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43099,7 +43099,7 @@
         <v>45016</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>45328</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>45103.46788194445</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45204</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>44643</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>44984.41238425926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45108</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44957</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44934</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44599.61034722222</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44851</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         <v>45384</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45204</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43870,7 +43870,7 @@
         <v>45646.43950231482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43927,7 +43927,7 @@
         <v>45415</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>44483</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45141</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>44411</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>44995</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44964</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44460</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>44461</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>45071</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>44963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>44992</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44564,7 +44564,7 @@
         <v>45169</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>45153</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>45329</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44963</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>45090.55078703703</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45646.42608796297</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44699</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44582.40109953703</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44250</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45386</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45462</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45328.47</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44691.54077546296</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45636</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45674</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>45593.60288194445</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45610,7 +45610,7 @@
         <v>45547</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         <v>44825</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>45666</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>44412</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>45698</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>45785</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45785</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45461</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45786.44217592593</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45517</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45786</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>44335</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45790.69971064815</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45461</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45674</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45646.45209490741</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45798.57403935185</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45231</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>45560</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46698,7 +46698,7 @@
         <v>45798.46452546296</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46755,7 +46755,7 @@
         <v>45240</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>45799</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>45799.27168981481</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>45804.37456018518</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46993,7 +46993,7 @@
         <v>45805.43341435185</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47050,7 +47050,7 @@
         <v>45805.43864583333</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         <v>45813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45813.57603009259</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45478</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44817</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>45814</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44876</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45057</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44473</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>45062</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>45225</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45986.56953703704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>44972</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45649</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44500</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>45666</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44809</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>44481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>44536</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45614.55686342593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45099</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45014</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45013</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>45799</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44512</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45184</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44671</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44749</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>44831</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45344</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>45229</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45903</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45231</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45852.71136574074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>45903</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45933.47856481482</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45133</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>44995</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45573.77701388889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45972.45605324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>44483</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45183</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>45357.37618055556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>46010</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>46009</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>44599</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>44803</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>46031.45652777778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44995</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>45188</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45077</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>45786.62152777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45814</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44393</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44299</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44824</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44430</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44473</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>44853</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44553</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>44546</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>44519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44299.40710648148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44265</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44423</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44512</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44266</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44266</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44866.87912037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44628</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44599</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44824</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44467</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44811.61142361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44391</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44466</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44719</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44370</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44361.34458333333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44725</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44791.42287037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44251</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44314.33722222222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44515</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44581</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44580.49780092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44844.52039351852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44498.53755787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44256</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44266</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44370.40364583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44265</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44299</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44712</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44783</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44783</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44449</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44783</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44351</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44510</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>44264</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44602.5965162037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44445.58675925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44495</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44496</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44701</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44550</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44412</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44426</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44383.23978009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44415</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44571</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44416.40457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44601</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44455</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44455</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44490.60873842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44607</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44871.69347222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44260</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44733.77543981482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44725</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44526</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44411</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44795.44392361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44827</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44463</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44393</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44768</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45231.40846064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44602</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44837</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44838</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44872.57288194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44797</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44725</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44369</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44581</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44496.58033564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44789</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44467</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44409.41428240741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44409.40363425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44605</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>44473</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44641</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44848.42216435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44480</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>44616</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44872.60384259259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44832</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44523</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>44375</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44725</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44266</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44270</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44512</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>44762</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44790</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44539</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44439</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44824</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45165</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44823</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44865</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>45457</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44790</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44559.57041666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44627.34033564815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>45362</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>45517</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>45483</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>44858</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>44964</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45697</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45697</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45456.83059027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>45110</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45181.92876157408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45181.95491898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>44784</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45006</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>44607.35009259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>44830.47399305556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>44601.78850694445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45516</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45167</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>45460.66567129629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>45019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44844</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44840</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45016</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44440</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45762</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45345</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>45001</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>45357.44873842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>45533.54609953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44928.36578703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44847</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44691.52616898148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44945</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45222</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45672</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44701.44754629629</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44701.4744212963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>45001</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44406</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45414</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45450.38120370371</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45327.35068287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>45141</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>44888</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>45152</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44809</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44985.46709490741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44831</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44678</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44424.38577546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>45208</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45362</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45124.55633101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45147</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44887</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45322</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45002.42188657408</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45798.56348379629</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45758</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>45245</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44964</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44994</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>44795</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45531</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45099</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>44638</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44895</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>45885</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>45338.34245370371</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44859</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45822</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>44793.50563657407</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>45316.49630787037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>45077</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45226</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45890</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45891</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44603</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45827</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45827</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45891.58381944444</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45890</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45826.59151620371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>45220.48068287037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45890</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45827.53319444445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>45827</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>45826.63324074074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>45827</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>45479</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>45097</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>45601</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45733</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44965</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45100</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45833</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45088.83430555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45833.45259259259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>45898</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20155,7 +20155,7 @@
         <v>44852</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>44957</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45594.62556712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>45901</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44797</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>45901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>45692</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45901.49755787037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45902.32601851852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45835.36697916667</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45595</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45902</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>44964</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45328</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45209</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45905.46659722222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45214</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45840.46559027778</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44664.55688657407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>44664</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45841.59056712963</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45281</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45281</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45840.46840277778</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45908.35550925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45107</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>45478.40751157407</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45842</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45483</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44441.88092592593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45700</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45842</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>44760</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45772.63453703704</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45915.41148148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45646.42061342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44932.74261574074</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45915</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45547</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44602</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44466</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45852</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45852.70716435185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>45852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>45852.72320601852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23055,7 +23055,7 @@
         <v>44830.4649074074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23112,7 +23112,7 @@
         <v>44830.46849537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>45852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>45352</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>45393</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>45845</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45393</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>45075</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>45194</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>45845</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44860</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>45211</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>44434</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>45925.38545138889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>45357.38601851852</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>44844</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>44817</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>45678</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>45477.65216435185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45729.56836805555</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45870</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>45215</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>45142</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45810</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45875.3396412037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44776</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44875</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45204</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>45316</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>44609.53502314815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45098</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45302</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45881.40907407407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>45322</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44908</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45727.34248842593</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>45853</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44551</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>45481.49899305555</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45478</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>45940</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>45177</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>45366</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>44978.49685185185</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>44978.5737037037</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44659</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45594.6605787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44602</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44602</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>44816</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>45477.64910879629</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>45946.69195601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>45951.65359953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45951.67546296296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>44974</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         <v>45950.44700231482</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26644,7 +26644,7 @@
         <v>44439</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26701,7 +26701,7 @@
         <v>44596.54990740741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         <v>44596.55368055555</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45229</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45951.65725694445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>44886</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>45006</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>45953.46193287037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45953.46886574074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>44319</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45953</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>45348</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45328</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45328</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>44858</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44781</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>44905</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>44628</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45088.83840277778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45957.38387731482</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44858.60809027778</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45405.48912037037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45959.40447916667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44977</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28094,7 +28094,7 @@
         <v>44977</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>44445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>45841.48686342593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>45964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>45901</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45840.47953703703</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>45964</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28498,7 +28498,7 @@
         <v>45840.47563657408</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28555,7 +28555,7 @@
         <v>45840.45864583334</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28612,7 +28612,7 @@
         <v>45840.50141203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28669,7 +28669,7 @@
         <v>45967.59880787037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28726,7 +28726,7 @@
         <v>44502.35746527778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28783,7 +28783,7 @@
         <v>45184</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28840,7 +28840,7 @@
         <v>45594</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45967.63784722222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>44978</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44886</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45272.55362268518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>44965</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45160</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44803.47950231482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44694</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45972.79274305556</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45972.81768518518</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45972.81034722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45974.64094907408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45357.44695601852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45975.57271990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45393</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>44840</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29819,7 +29819,7 @@
         <v>44895</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45205</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29933,7 +29933,7 @@
         <v>44957.44885416667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>45980.32501157407</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45981</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44942.58850694444</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>44942</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45239</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30280,7 +30280,7 @@
         <v>45758</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30337,7 +30337,7 @@
         <v>44488</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44467</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45057</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44362</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44957</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>45446.56626157407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30718,7 +30718,7 @@
         <v>45386</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45120</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45993.48525462963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45478</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>44985.47086805556</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44980</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31065,7 +31065,7 @@
         <v>44549.74741898148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44789</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>46034.55986111111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44789</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>45604</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44461</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>46037.37704861111</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31469,7 +31469,7 @@
         <v>45547</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31526,7 +31526,7 @@
         <v>45182.5793287037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
         <v>45182</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44789</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>46037.62321759259</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31764,7 +31764,7 @@
         <v>45753.61614583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31821,7 +31821,7 @@
         <v>44551</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31878,7 +31878,7 @@
         <v>44551</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31935,7 +31935,7 @@
         <v>44507.56865740741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31992,7 +31992,7 @@
         <v>45281</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>46038.56913194444</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45477</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>46037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>44977</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45996.56251157408</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>46000.37695601852</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32406,7 +32406,7 @@
         <v>44970</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32463,7 +32463,7 @@
         <v>44909</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>44266</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>44859</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45565</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>44781</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32820,7 +32820,7 @@
         <v>46000.46746527778</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         <v>44886.65092592593</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>44837</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45196</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>46002.57778935185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         <v>44621</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33167,7 +33167,7 @@
         <v>45189</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>44859</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33281,7 +33281,7 @@
         <v>45013</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33343,7 +33343,7 @@
         <v>46048.66766203703</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>44483</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33462,7 +33462,7 @@
         <v>45096</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33519,7 +33519,7 @@
         <v>45231</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33576,7 +33576,7 @@
         <v>44987</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33633,7 +33633,7 @@
         <v>45154</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>46051.50774305555</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45457</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>44518</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>44862</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45002</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>45393</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34047,7 +34047,7 @@
         <v>45153</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34109,7 +34109,7 @@
         <v>45163</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34166,7 +34166,7 @@
         <v>46010</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34228,7 +34228,7 @@
         <v>46010</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>46010</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44830.38502314815</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>46010</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44871</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>45475</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44696</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45247</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44978.52131944444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45481.49289351852</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>45463</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34870,7 +34870,7 @@
         <v>44830</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34927,7 +34927,7 @@
         <v>45148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34984,7 +34984,7 @@
         <v>46059.59083333334</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44823.44353009259</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>45096</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44968</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>45635.44527777778</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>45012.66421296296</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44817</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>44603</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45001</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45566.82973379629</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45268</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45230</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35740,7 +35740,7 @@
         <v>46020</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35797,7 +35797,7 @@
         <v>45547</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
         <v>45772.63540509259</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35911,7 +35911,7 @@
         <v>44922</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         <v>45473.87645833333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36035,7 +36035,7 @@
         <v>45350.32991898148</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>45357.45089120371</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         <v>45076</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>45967</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>44495</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>45322</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36382,7 +36382,7 @@
         <v>44587</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36439,7 +36439,7 @@
         <v>45677</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36496,7 +36496,7 @@
         <v>44945</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36553,7 +36553,7 @@
         <v>45125</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36610,7 +36610,7 @@
         <v>45105</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>44481.24327546296</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45191</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45231</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>46073.68959490741</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45473.88313657408</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>45205.31987268518</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>46030.684375</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>46073.70451388889</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45348</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>46030.68107638889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>44502.36780092592</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37304,7 +37304,7 @@
         <v>45239.54861111111</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37361,7 +37361,7 @@
         <v>44701.36431712963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>44888</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37475,7 +37475,7 @@
         <v>46030.66519675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37532,7 +37532,7 @@
         <v>45050</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37594,7 +37594,7 @@
         <v>46030.67123842592</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>45509</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>44838</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>45214</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>44694</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>44601</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37941,7 +37941,7 @@
         <v>44952</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37998,7 +37998,7 @@
         <v>45076</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38055,7 +38055,7 @@
         <v>45075</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38112,7 +38112,7 @@
         <v>45518</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38169,7 +38169,7 @@
         <v>45169</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38283,7 +38283,7 @@
         <v>45098</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38340,7 +38340,7 @@
         <v>45126.65491898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>44848</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45362</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38511,7 +38511,7 @@
         <v>45168</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38568,7 +38568,7 @@
         <v>45677</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38625,7 +38625,7 @@
         <v>45056.46821759259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38682,7 +38682,7 @@
         <v>44523</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38739,7 +38739,7 @@
         <v>44602</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38796,7 +38796,7 @@
         <v>44530.82445601852</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38853,7 +38853,7 @@
         <v>45000.36373842593</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38910,7 +38910,7 @@
         <v>44602</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
         <v>44995</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39029,7 +39029,7 @@
         <v>44872.57752314815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39086,7 +39086,7 @@
         <v>45026</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>44708</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39200,7 +39200,7 @@
         <v>45180</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>45071.37393518518</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39319,7 +39319,7 @@
         <v>45470</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39376,7 +39376,7 @@
         <v>45666</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39433,7 +39433,7 @@
         <v>44386</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45215</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45215</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45107</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39671,7 +39671,7 @@
         <v>44480</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39728,7 +39728,7 @@
         <v>45268</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39785,7 +39785,7 @@
         <v>45590</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39842,7 +39842,7 @@
         <v>44853</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45041</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>45775.52854166667</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45594.63619212963</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45594.63828703704</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40142,7 +40142,7 @@
         <v>44886</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40199,7 +40199,7 @@
         <v>45211</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40256,7 +40256,7 @@
         <v>45460</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40313,7 +40313,7 @@
         <v>45230</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40370,7 +40370,7 @@
         <v>45446.56141203704</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>44712</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>45230</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>45632.46648148148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>44491</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>45223</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40722,7 +40722,7 @@
         <v>45475</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44833</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>45225</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>45264.64241898148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40950,7 +40950,7 @@
         <v>44855</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44985</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>44805</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>45694</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>44985</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41245,7 +41245,7 @@
         <v>45138.60248842592</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41302,7 +41302,7 @@
         <v>45697</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41359,7 +41359,7 @@
         <v>44888</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41416,7 +41416,7 @@
         <v>44888</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>44623</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41530,7 +41530,7 @@
         <v>44616.69246527777</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41587,7 +41587,7 @@
         <v>45070</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>44449</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>45478</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>45520.59179398148</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>45174</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>44467</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>45688</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>45477</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>44464.49756944444</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>44596</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45238</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>44442</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45692</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>45214</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>45189</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45635.43770833333</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>45061</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>45001</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>45001</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>44600</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42747,7 +42747,7 @@
         <v>44957</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>45646.45950231481</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44725.39371527778</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>45229</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42985,7 +42985,7 @@
         <v>44824.55655092592</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45438</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43099,7 +43099,7 @@
         <v>45016</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>45328</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43218,7 +43218,7 @@
         <v>45103.46788194445</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45204</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>44643</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>44984.41238425926</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45108</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44957</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>44934</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>44599.61034722222</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>44851</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         <v>45384</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45204</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43870,7 +43870,7 @@
         <v>45646.43950231482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43927,7 +43927,7 @@
         <v>45415</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>44483</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45141</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>44411</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>44995</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44964</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44460</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44331,7 +44331,7 @@
         <v>44461</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>45071</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>44963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44502,7 +44502,7 @@
         <v>44992</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44564,7 +44564,7 @@
         <v>45169</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>45153</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>45329</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44963</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>45090.55078703703</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>45646.42608796297</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>44699</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>44582.40109953703</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>44582</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45087,7 +45087,7 @@
         <v>44250</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45144,7 +45144,7 @@
         <v>45386</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45201,7 +45201,7 @@
         <v>45462</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45258,7 +45258,7 @@
         <v>45328.47</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>44691.54077546296</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45050</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45636</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45674</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45553,7 +45553,7 @@
         <v>45593.60288194445</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45610,7 +45610,7 @@
         <v>45547</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         <v>44825</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>45666</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>44412</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45843,7 +45843,7 @@
         <v>45698</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45900,7 +45900,7 @@
         <v>45785</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45785</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45461</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45786.44217592593</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45517</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45786</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>44335</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45790.69971064815</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45461</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45674</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45646.45209490741</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45798.57403935185</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45231</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>45560</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46698,7 +46698,7 @@
         <v>45798.46452546296</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46755,7 +46755,7 @@
         <v>45240</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>45799</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>45799.27168981481</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>45804.37456018518</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46993,7 +46993,7 @@
         <v>45805.43341435185</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47050,7 +47050,7 @@
         <v>45805.43864583333</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         <v>45813</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45813</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45813.57603009259</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>

--- a/Översikt KATRINEHOLM.xlsx
+++ b/Översikt KATRINEHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>45478</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         <v>44817</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>45814</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44434</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44995</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>44876</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>45057</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44473</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45062</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>45225</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44972</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>45986.56953703704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         <v>45649</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44500</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45099</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>45013</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>44809</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>45614.55686342593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         <v>45799</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         <v>44512</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>44602</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         <v>44733</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44839</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44995</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>45357.37618055556</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45814</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>44671</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45903</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45077</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44483</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45852.71136574074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45183</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45903</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>45184</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>45933.47856481482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>44803</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45188</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>45972.45605324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45344</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>45231</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>46010</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>46009</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>45229</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>46031.45652777778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44995</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>44599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5561,7 +5561,7 @@
         <v>44831</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44995</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44749</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>45573.77701388889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>45786.62152777778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44393</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44299</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44824</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44430</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44853</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>44473</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44553</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>44546</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>44519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44265</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44299.40710648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44423</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44512</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44266</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44266</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44866.87912037037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>44407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>44468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>44536</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44476</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44599</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44628</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44824</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44467</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44811.61142361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44719</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44391</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44417</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44466</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44496</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44480</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>44719</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44370</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>44585</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>44361.34458333333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44725</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>44619</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44791.42287037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44515</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44314.33722222222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44581</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44580.49780092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>44844.52039351852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44498.53755787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>44256</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44266</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>44370.40364583334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44265</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44299</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44712</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44783</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44783</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44449</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44351</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44783</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44510</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44264</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44602.5965162037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44445.58675925926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44495</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44496</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44701</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44550</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44475</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44426</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44383.23978009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44415</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44455</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44416.40457175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44601</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44455</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44455</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44490.60873842592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44607</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44871.69347222222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44733.77543981482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44260</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44526</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44725</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44411</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44795.44392361111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44827</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44463</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44393</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44768</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45231.40846064815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44602</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44837</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44872.57288194444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44797</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44725</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44369</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44581</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>44496.58033564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44789</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>44467</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>44409.41428240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44409.40363425926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>44605</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44473</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44848.42216435185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44480</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>44616</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>44872.60384259259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44832</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44522</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44523</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44375</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>44725</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>44270</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44266</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44512</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44762</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44790</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>44439</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>44539</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>44824</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>44488</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>44789</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44319</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>45697</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>45697</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>45177</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44803.47950231482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44859</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>45678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45414</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45775.52854166667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>45362</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>44837</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45230</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44830.4649074074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>44830.46849537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>44888</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45208</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>44888</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>44481.24327546296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45100</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44952</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45239.54861111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45106</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15146,7 +15146,7 @@
         <v>45457</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44830</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>44847</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>44474</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44789</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44886.65092592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>45415</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44805</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>45456.83059027778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44461</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44844</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44460</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45281</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>45478.40751157407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45462</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45322</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45099</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44406</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44838</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44523</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44483</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>45483</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>45281</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44860</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>45470</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>45169</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44530.82445601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45239</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45478</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>45481.49289351852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45481.49899305555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>45475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44840</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44970</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45672</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44858</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>45473.88313657408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44495</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45475</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45088.83840277778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>44602</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44602</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45362</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44596.55368055555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>45518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45393</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45483</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>44985</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>44491</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>45460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>45362</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>45393</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>45393</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>44994</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>45804.37456018518</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>45853</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44599.61034722222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>45357.45089120371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45805.43341435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>45805.43864583333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>45566.82973379629</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45348</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>45348</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44627.34033564815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>45477.64910879629</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44587</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45885</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44502.36780092592</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45890</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45813</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>45813</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45813.57603009259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45890</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45890</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>44957</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45798.56348379629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45636</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>45531</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45547</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>44638</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         <v>45891</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20160,7 +20160,7 @@
         <v>45891.58381944444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44985.46709490741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>45822</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44980</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44659</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>44995</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>45594.63619212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45594.63828703704</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>45826.59151620371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>45826.63324074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>44928.36578703704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>45898</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>44623</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45827.53319444445</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45827</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45384</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44733.39600694444</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45827</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45901.49755787037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45827</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>44984.41238425926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>45595</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45901</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>45901</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>44602</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45902.32601851852</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45902</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21853,7 +21853,7 @@
         <v>45833</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45590</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>44725.39371527778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>44445</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45833</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>45272.55362268518</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         <v>45833.45259259259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45247</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44266</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>45908.35550925926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>45907</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45835.36697916667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45905.46659722222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44600</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>45223</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45840.46840277778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45840.46559027778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45762</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45316</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>45841.59056712963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>44797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>45565</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>44701.44754629629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>44701.4744212963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>45842</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
         <v>45842</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>45700</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>45772.63453703704</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45594.62556712963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45604</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45204</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44643</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44461</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>45230</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>45593.60288194445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>45012.66421296296</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45061</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45001</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45000.36373842593</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44968</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>45594</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>45001</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>44987</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>45852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45852</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45852.72320601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>45852.70716435185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45096</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>45845</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45852</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>45666</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44964</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25132,7 +25132,7 @@
         <v>45915</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45646.42061342593</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>45915.41148148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>45845</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>44434</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>45041</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>45635.43770833333</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25531,7 +25531,7 @@
         <v>45204</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44795</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>45925.38545138889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>45870</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>45810</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44781</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>44781</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45147</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>45729.56836805555</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45189</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>45215</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45875.3396412037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44817</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>44442</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26406,7 +26406,7 @@
         <v>45226</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         <v>45688</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45098</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45477</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>44502.35746527778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45182.5793287037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45182</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45727.34248842593</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>44840</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45881.40907407407</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26991,7 +26991,7 @@
         <v>45205.31987268518</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>44844</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
         <v>44823</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27162,7 +27162,7 @@
         <v>44859</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>44386</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44862</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>45110</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>44895</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>45209</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44466</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>44909</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>45050</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45940</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44862</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44582.40109953703</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>44963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45211</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45057</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>44433</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>45231</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28175,7 +28175,7 @@
         <v>45520.59179398148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44852</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>45076</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44559.57041666667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>45946.69195601852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44464.49756944444</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>44480</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>44440</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>44865</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45366</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45950.44700231482</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28807,7 +28807,7 @@
         <v>44467</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28864,7 +28864,7 @@
         <v>45075</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45138.60248842592</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28978,7 +28978,7 @@
         <v>44848</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         <v>44887</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>45951.65725694445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29154,7 +29154,7 @@
         <v>44483</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29211,7 +29211,7 @@
         <v>44932.74261574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
         <v>45231</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29325,7 +29325,7 @@
         <v>45951.65359953704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>45951.67546296296</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29449,7 +29449,7 @@
         <v>45229</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45953.46886574074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>45953.46193287037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>45953</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>45450.38120370371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45071.37393518518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45733</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29858,7 +29858,7 @@
         <v>45070</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>44859</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>44696</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45957.38387731482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>44507.56865740741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45107</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45694</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>45959.40447916667</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>45142</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44551</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>45841.48686342593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>45840.50141203704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44875</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>45393</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>45901</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>45840.47563657408</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30790,7 +30790,7 @@
         <v>45840.45864583334</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>45840.47953703703</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30904,7 +30904,7 @@
         <v>45964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30961,7 +30961,7 @@
         <v>45964</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44992</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>45327.35068287037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>45329</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44362</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>45322</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31313,7 +31313,7 @@
         <v>45967.63784722222</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31370,7 +31370,7 @@
         <v>44628</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31427,7 +31427,7 @@
         <v>45180</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>45967.59880787037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>45002</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31603,7 +31603,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
         <v>45097</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31717,7 +31717,7 @@
         <v>45019</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31779,7 +31779,7 @@
         <v>45463</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31836,7 +31836,7 @@
         <v>45446.56626157407</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>45393</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>45076</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>45972.79274305556</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>45972.81768518518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>45152</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         <v>45148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32245,7 +32245,7 @@
         <v>45478</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32302,7 +32302,7 @@
         <v>45972.81034722222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32359,7 +32359,7 @@
         <v>45974.64094907408</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32416,7 +32416,7 @@
         <v>45975.57271990741</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32473,7 +32473,7 @@
         <v>45105</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32535,7 +32535,7 @@
         <v>44621</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32592,7 +32592,7 @@
         <v>45174</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32654,7 +32654,7 @@
         <v>45980.32501157407</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>45328</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>45328</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>45481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>44985.47086805556</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>45328</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>45981</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>45533.54609953704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>45153</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33182,7 +33182,7 @@
         <v>45479</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33239,7 +33239,7 @@
         <v>44964</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>45125</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33353,7 +33353,7 @@
         <v>45108</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33410,7 +33410,7 @@
         <v>44596.54990740741</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>44596</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33581,7 +33581,7 @@
         <v>44582</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33638,7 +33638,7 @@
         <v>44551</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33695,7 +33695,7 @@
         <v>44551</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33752,7 +33752,7 @@
         <v>44609.53502314815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45211</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>45338.34245370371</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45517</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33980,7 +33980,7 @@
         <v>45993.48525462963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34037,7 +34037,7 @@
         <v>45632.46648148148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34094,7 +34094,7 @@
         <v>45230</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45077</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         <v>45996.56251157408</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>46000.46746527778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34332,7 +34332,7 @@
         <v>46000.37695601852</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34394,7 +34394,7 @@
         <v>45165</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34451,7 +34451,7 @@
         <v>45214</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34508,7 +34508,7 @@
         <v>45050</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34570,7 +34570,7 @@
         <v>45225</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34627,7 +34627,7 @@
         <v>46002.57778935185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>45692</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45674</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>44817</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45141</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45141</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>46048.66766203703</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>44699</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>45215</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>45215</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>45103.46788194445</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35269,7 +35269,7 @@
         <v>45196</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>45090.55078703703</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>44678</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45446.56141203704</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
         <v>45194</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>45238</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>46010</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35688,7 +35688,7 @@
         <v>46010</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35750,7 +35750,7 @@
         <v>46010</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>44664.55688657407</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>44664</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35926,7 +35926,7 @@
         <v>45124.55633101852</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>45772.63540509259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36040,7 +36040,7 @@
         <v>46051.50774305555</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>46010</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>44712</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36216,7 +36216,7 @@
         <v>45096</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36273,7 +36273,7 @@
         <v>45169</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36330,7 +36330,7 @@
         <v>45204</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>45153</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36444,7 +36444,7 @@
         <v>44793.50563657407</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36501,7 +36501,7 @@
         <v>44424.38577546296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36558,7 +36558,7 @@
         <v>45460.66567129629</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36615,7 +36615,7 @@
         <v>44823.44353009259</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36672,7 +36672,7 @@
         <v>45758</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36729,7 +36729,7 @@
         <v>45758</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>44760</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>46059.59083333334</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36905,7 +36905,7 @@
         <v>45163</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36962,7 +36962,7 @@
         <v>45357.38601851852</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>44853</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>46020</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45477</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>44518</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
         <v>44851</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37319,7 +37319,7 @@
         <v>45967</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>45302</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>45322</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37547,7 +37547,7 @@
         <v>45477.65216435185</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45268</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>44439</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>44965</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44519</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45352</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>46030.66519675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>46030.67123842592</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45006</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45264.64241898148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>44886</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>44888</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>45184</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38298,7 +38298,7 @@
         <v>46030.68107638889</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38355,7 +38355,7 @@
         <v>46030.684375</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38412,7 +38412,7 @@
         <v>45357.44695601852</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38469,7 +38469,7 @@
         <v>45357.44873842593</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>45405.48912037037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38583,7 +38583,7 @@
         <v>45328</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38640,7 +38640,7 @@
         <v>45229</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>46073.70451388889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>45547</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>45328.47</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>46034.55986111111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45167</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45026</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>46073.68959490741</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39168,7 +39168,7 @@
         <v>45478</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45181.92876157408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39282,7 +39282,7 @@
         <v>45181.95491898148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39339,7 +39339,7 @@
         <v>44776</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39396,7 +39396,7 @@
         <v>46078.8040625</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39458,7 +39458,7 @@
         <v>44957.44885416667</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>46078.46894675926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>44449</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>44858.60809027778</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>44602</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45016</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>44411</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>46078.78545138889</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>46078.81072916667</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39986,7 +39986,7 @@
         <v>45107</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
         <v>46037.62321759259</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>46037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>46038.56913194444</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40224,7 +40224,7 @@
         <v>44691.52616898148</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40281,7 +40281,7 @@
         <v>44601.78850694445</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>44549.74741898148</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40395,7 +40395,7 @@
         <v>46037.37704861111</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40457,7 +40457,7 @@
         <v>44942</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40514,7 +40514,7 @@
         <v>44441.88092592593</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40571,7 +40571,7 @@
         <v>44922</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>44790</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45386</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>44905</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>46079.70384259259</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         <v>45002.42188657408</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40923,7 +40923,7 @@
         <v>44694</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40980,7 +40980,7 @@
         <v>44691.54077546296</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41037,7 +41037,7 @@
         <v>45111</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>44964</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41151,7 +41151,7 @@
         <v>44995</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41213,7 +41213,7 @@
         <v>44602</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41270,7 +41270,7 @@
         <v>45006</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41327,7 +41327,7 @@
         <v>44816</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41384,7 +41384,7 @@
         <v>44978.52131944444</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>45245</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44708</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>45222</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>45075</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>45547</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41731,7 +41731,7 @@
         <v>44616.69246527777</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41788,7 +41788,7 @@
         <v>45088.83430555555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41845,7 +41845,7 @@
         <v>44957</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44694</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41964,7 +41964,7 @@
         <v>45268</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42021,7 +42021,7 @@
         <v>45168</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42078,7 +42078,7 @@
         <v>45071</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42135,7 +42135,7 @@
         <v>44830.47399305556</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42192,7 +42192,7 @@
         <v>44978</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42249,7 +42249,7 @@
         <v>44858</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44467</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42363,7 +42363,7 @@
         <v>45509</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45386</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>44824.55655092592</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>44978.49685185185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>44978.5737037037</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>44977</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44603</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44784</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44603</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44607.35009259259</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45473.87645833333</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44701.36431712963</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>45019</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43124,7 +43124,7 @@
         <v>44871</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>45160</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43243,7 +43243,7 @@
         <v>44977</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43305,7 +43305,7 @@
         <v>45516</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43362,7 +43362,7 @@
         <v>44942.58850694444</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43419,7 +43419,7 @@
         <v>44908</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43476,7 +43476,7 @@
         <v>45056.46821759259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         <v>45016</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43595,7 +43595,7 @@
         <v>45191</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43652,7 +43652,7 @@
         <v>45677</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43709,7 +43709,7 @@
         <v>45214</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43766,7 +43766,7 @@
         <v>45033</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43823,7 +43823,7 @@
         <v>45753.61614583333</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>45126.65491898148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43937,7 +43937,7 @@
         <v>45635.44527777778</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>44985</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44056,7 +44056,7 @@
         <v>44974</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44118,7 +44118,7 @@
         <v>44945</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44175,7 +44175,7 @@
         <v>45154</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>44872.57752314815</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>45205</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>44886</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45667</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>45646.42608796297</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45457</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>44977</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44636,7 +44636,7 @@
         <v>44855</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44698,7 +44698,7 @@
         <v>44934</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44755,7 +44755,7 @@
         <v>44809</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44812,7 +44812,7 @@
         <v>44825</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44869,7 +44869,7 @@
         <v>45281</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44931,7 +44931,7 @@
         <v>45214</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44988,7 +44988,7 @@
         <v>44830.38502314815</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45045,7 +45045,7 @@
         <v>45316.49630787037</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45102,7 +45102,7 @@
         <v>45646.45950231481</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45159,7 +45159,7 @@
         <v>45189</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>45220.48068287037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45330,7 +45330,7 @@
         <v>44957</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45392,7 +45392,7 @@
         <v>44957</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45454,7 +45454,7 @@
         <v>44965</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>45697</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>45692</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45630,7 +45630,7 @@
         <v>45001</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45687,7 +45687,7 @@
         <v>45001</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45601</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>45345</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45858,7 +45858,7 @@
         <v>45013</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45920,7 +45920,7 @@
         <v>45594.6605787037</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45977,7 +45977,7 @@
         <v>45677</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45646.43950231482</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46091,7 +46091,7 @@
         <v>44945</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46148,7 +46148,7 @@
         <v>45350.32991898148</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>45547</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>44412</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>45666</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         <v>45698</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46443,7 +46443,7 @@
         <v>44335</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46500,7 +46500,7 @@
         <v>45517</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         <v>45785</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46614,7 +46614,7 @@
         <v>45785</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45461</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45786</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45786.44217592593</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45790.69971064815</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45461</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45674</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>45798.46452546296</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47070,7 +47070,7 @@
         <v>45798.57403935185</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47127,7 +47127,7 @@
         <v>45240</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47189,7 +47189,7 @@
         <v>45646.45209490741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47246,7 +47246,7 @@
         <v>45560</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47303,7 +47303,7 @@
         <v>45799.27168981481</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47360,7 +47360,7 @@
         <v>45231</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47417,7 +47417,7 @@
         <v>45799</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
